--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -252,17 +255,13 @@
     <t>*</t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり</t>
+    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -276,329 +275,301 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>prefectureNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_PrefectureNo}
+</t>
+  </si>
+  <si>
+    <t>都道府県番号２桁を表現するExtension</t>
+  </si>
+  <si>
+    <t>都道府県番号２桁を表現するためのExtension。
+JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+  </si>
+  <si>
+    <t>都道府県番号２桁。Identifier型の拡張を使用する。  
+valueには都道府県番号2桁の値を格納し、systemには都道府県番号を表すOID「1.2.392.100495.20.3.21」を指定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>organizationCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationCategory}
+</t>
+  </si>
+  <si>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
+  </si>
+  <si>
+    <t>点数表コード１桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+  </si>
+  <si>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
+  </si>
+  <si>
+    <t>organizationNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationNo}
+</t>
+  </si>
+  <si>
+    <t>医療機関コード（７桁）を表現するExtension【詳細参照】</t>
+  </si>
+  <si>
+    <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+  </si>
+  <si>
+    <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。
+valueには下記の値を格納する。  
+- 保険医療機関・保険薬局 : `医療機関コード（７桁）`
+- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`
+医療機関コードの詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+なお上記に該当しない施設は、本拡張は使用しない。</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別【詳細参照】</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
+複数の異種システムにまたがって組織を識別するための識別子</t>
+  </si>
+  <si>
+    <t>福祉医療関連施設と保険者組織はSlicingについてはJP Coreにて定義を行なっているため、定義に従いデータを格納すること。それ以外の組織については、利用する際には必要に応じて識別子を定義を行なうこと。</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
+組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>PrefectureNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_PrefectureNo}
-</t>
-  </si>
-  <si>
-    <t>都道府県番号２桁を表現するExtension</t>
-  </si>
-  <si>
-    <t>都道府県番号２桁を表現するためのExtension。
-JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
-  </si>
-  <si>
-    <t>都道府県番号２桁。Identifier型の拡張を使用する。
-valueには都道府県番号2桁の値を格納し、systemには都道府県番号を表すOID「1.2.392.100495.20.3.21」を指定する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>OrganizationCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationCategory}
-</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科1、歯科 3）。Identifier型の拡張
-「OrganizationCategory」を使用する。systemには点数表番号
-を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
-  </si>
-  <si>
-    <t>OrganizationNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationNo}
-</t>
-  </si>
-  <si>
-    <t>保険医療機関番号７桁を表現するExtension</t>
-  </si>
-  <si>
-    <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
-  </si>
-  <si>
-    <t>保険医療機関番号７桁。Identifier型の拡張
-「InsuranceOrganizationNo」を使用する。systemには医療機関コードを
-表すOID「1.2.392.100495.20.3.23」を指定する。</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
-複数の異種システムにまたがって組織を識別するための識別子</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
-組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集しています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.10 / XON.3</t>
-  </si>
-  <si>
-    <t>.scopes[Role](classCode=IDENT)</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t>MedicalInstitutionCode</t>
-  </si>
-  <si>
-    <t>--- SWG3 コメント---
-処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
-systemはFixed Valueの
-```
-http://jpfhir.jp/fhir/Common/CodeSystem/insurance-medical-institution-no-```
-を使用する。
-記載の様式(Wikipediaより転載)
-記載されている10桁の内訳は以下の通りである。
-　・最初の2桁 全国地方公共団体コードの都道府県コード（ISO 3166-2:JP）
-　　・都道府県ごとの番号。
-　・3桁目 点数表番号
-　　・医科は「1」。歯科は「3」。
-　　　・したがって、同一の病院または診療所に医科と歯科が併存する場合にはそれぞれ別のコードが与えられる。
-　　　・そのため、レセプトコンピュータでは一医療機関に対して医科と歯科の両方のコードを設定できるようになっている。
-　　　・ちなみに処方箋は発行されないが、「4」は調剤、「5」は老人保健施設、「6」は訪問看護ステーションである。
-　　・下7桁 医療機関コード
-　　　・地区（2桁）+番号（4桁）+チェックディジット（1桁）で構成される。
-　・7桁の医療機関コードについて
-　　各地域を所管する厚生労働省の地方支分部局である地方厚生局のホームページ等で確認できる。</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -705,9 +676,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/insurance-medical-institution-no</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -778,36 +746,65 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>medicalInstitutionCode</t>
+  </si>
+  <si>
+    <t>施設が福祉医療関連機関である場合に利用する識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
+value : ```医療機関コード（１０桁）```を使用する。 
+医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。 </t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>InsurerNumber</t>
-  </si>
-  <si>
-    <t>--- SWG3 コメント---
-健康保険組合などの保険者の保険者番号を表現する際のIdentifer表現に使用する
+    <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
 system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか</t>
+    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.
@@ -830,12 +827,12 @@
   <si>
     <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
 This element is labeled as a modifier because it may be used to mark that the resource was created in error.
-このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していません。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要があります。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要があります。
-この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされています。</t>
+このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。
+この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされている。</t>
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.
-レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要があります。</t>
+レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザのために非表示にする必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -856,7 +853,7 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization / 組織の種類</t>
+    <t>Kind of organization / 組織の種類【詳細参照】</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.
@@ -866,13 +863,13 @@
     <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
 When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
 We expect that some jurisdictions will profile this optionality to be a single cardinality.
-組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができます。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードです。
-複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要があります。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
+組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。
+複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要がある。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
 いくつかの法域では、このオプション性を単一のカーディナリティとしてプロファイルすると予想される。</t>
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.
-これがある組織の種類を追跡することができる必要があります - 異なる組織の種類は、異なる用途を持っています。</t>
+これがある組織の種類を追跡することができる必要がある - 異なる組織の種類は、異なる用途を持っている。</t>
   </si>
   <si>
     <t>example</t>
@@ -896,7 +893,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization / 組織に使用されている名称</t>
+    <t>Name used for the organization / 組織に使用されている名称【詳細参照】</t>
   </si>
   <si>
     <t>A name associated with the organization.
@@ -904,11 +901,11 @@
   </si>
   <si>
     <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.
-組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討してください。</t>
+組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討すべきである。</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.
-組織のラベルとして名前を使用する必要があります。</t>
+組織のラベルとして名前を使用する必要がある。</t>
   </si>
   <si>
     <t>XON.1</t>
@@ -923,7 +920,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.
@@ -931,13 +928,13 @@
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.
-これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はありません。</t>
+これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はない。</t>
   </si>
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
 For searching knowing previous names that the organization was known by can be very useful.
-時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができます。
-組織が知っている前の名前を知るための検索には、非常に便利なことができます。</t>
+時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。
+組織が知っている前の名前を知るための検索には、非常に便利なことができる。</t>
   </si>
   <si>
     <t>Organization.telecom</t>
@@ -947,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization / 組織の連絡先詳細</t>
+    <t>A contact detail for the organization / 組織の連絡先詳細【詳細参照】</t>
   </si>
   <si>
     <t>A contact detail for the organization.
@@ -955,7 +952,7 @@
   </si>
   <si>
     <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.
-使用コード「home」は使用しないでください。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意してください。</t>
+使用コード「home」は使用しないこと。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意すること。</t>
   </si>
   <si>
     <t>Human contact for the organization.
@@ -986,7 +983,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization / 組織の住所</t>
+    <t>An address for the organization / 組織の住所【詳細参照】</t>
   </si>
   <si>
     <t>An address for the organization.
@@ -994,11 +991,11 @@
   </si>
   <si>
     <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.
-組織は、用途や適用期間が異なる複数の住所を持っている場合があります。使用コード「home」は使用しないでください。</t>
+組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないこと。</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.
-連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合があります。</t>
+連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合がある。</t>
   </si>
   <si>
     <t xml:space="preserve">org-2
@@ -1021,15 +1018,15 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part</t>
+    <t>The organization of which this organization forms a part【詳細参照】</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.
 この組織が一部を構成する組織</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要があります（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -1045,7 +1042,7 @@
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先</t>
+    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先【詳細参照】</t>
   </si>
   <si>
     <t>Contact for the organization for a certain purpose.
@@ -1110,23 +1107,31 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://jpfhir.jp/fhir/core/StructureDefinition/JP_HumanName}
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.
+識別のための人の名前情報</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
+名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -1172,7 +1177,7 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
+    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the organization.
@@ -1429,55 +1434,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1496,40 +1501,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
@@ -1539,218 +1544,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1759,10 +1764,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1771,20 +1776,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>86</v>
@@ -1803,77 +1808,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1882,20 +1887,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>86</v>
@@ -1912,77 +1917,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1991,17 +1996,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>86</v>
@@ -2023,77 +2028,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2102,23 +2107,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>105</v>
@@ -2134,26 +2139,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>109</v>
@@ -2165,46 +2170,46 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2217,19 +2222,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>115</v>
@@ -2245,77 +2250,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2328,19 +2333,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>123</v>
@@ -2356,77 +2361,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2435,23 +2440,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>130</v>
@@ -2465,45 +2470,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>134</v>
@@ -2512,28 +2517,28 @@
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2544,23 +2549,23 @@
         <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>138</v>
@@ -2576,59 +2581,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2637,16 +2642,16 @@
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2657,23 +2662,23 @@
         <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>144</v>
@@ -2689,59 +2694,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>142</v>
@@ -2750,16 +2755,16 @@
         <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2770,23 +2775,23 @@
         <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>149</v>
@@ -2802,59 +2807,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>142</v>
@@ -2863,16 +2868,16 @@
         <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2885,19 +2890,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>130</v>
@@ -2915,77 +2920,77 @@
         <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2994,20 +2999,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>86</v>
@@ -3021,50 +3026,52 @@
       <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>134</v>
@@ -3073,3947 +3080,4726 @@
         <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI49" t="s" s="2">
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>76</v>
+      <c r="AJ55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -1190,9 +1190,6 @@
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>東京都文京区本郷7-3-1</t>
-  </si>
-  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -1219,9 +1216,6 @@
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
-    <t>本郷7-3-1</t>
-  </si>
-  <si>
     <t>Address.line</t>
   </si>
   <si>
@@ -1250,9 +1244,6 @@
     <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
-    <t>文京区</t>
-  </si>
-  <si>
     <t>Address.city</t>
   </si>
   <si>
@@ -1306,9 +1297,6 @@
     <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
-    <t>東京都</t>
-  </si>
-  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -1335,9 +1323,6 @@
   </si>
   <si>
     <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
-  </si>
-  <si>
-    <t>113-8655</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -1889,7 +1874,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -8378,43 +8363,43 @@
         <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8429,10 +8414,10 @@
         <v>160</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8443,10 +8428,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8472,13 +8457,13 @@
         <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8492,7 +8477,7 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>38</v>
@@ -8528,7 +8513,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8543,13 +8528,13 @@
         <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8557,14 +8542,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8586,13 +8571,13 @@
         <v>140</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8606,7 +8591,7 @@
         <v>38</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>38</v>
@@ -8642,7 +8627,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8657,13 +8642,13 @@
         <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8671,14 +8656,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8700,13 +8685,13 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8756,7 +8741,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8771,10 +8756,10 @@
         <v>160</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8785,14 +8770,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8814,13 +8799,13 @@
         <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8834,7 +8819,7 @@
         <v>38</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>38</v>
@@ -8870,7 +8855,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8885,13 +8870,13 @@
         <v>160</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8899,14 +8884,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8928,13 +8913,13 @@
         <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8948,7 +8933,7 @@
         <v>38</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>38</v>
@@ -8984,7 +8969,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8999,13 +8984,13 @@
         <v>160</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9013,10 +8998,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9042,13 +9027,13 @@
         <v>140</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9098,7 +9083,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9113,13 +9098,13 @@
         <v>160</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9127,10 +9112,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9156,16 +9141,16 @@
         <v>191</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9214,7 +9199,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9229,7 +9214,7 @@
         <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>331</v>
@@ -9243,10 +9228,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9272,16 +9257,16 @@
         <v>199</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9330,7 +9315,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9348,7 +9333,7 @@
         <v>244</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>144</v>
@@ -9359,10 +9344,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9385,19 +9370,19 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9446,7 +9431,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9464,7 +9449,7 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9475,10 +9460,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9587,10 +9572,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9701,14 +9686,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9730,10 +9715,10 @@
         <v>93</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>124</v>
@@ -9788,7 +9773,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9817,10 +9802,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9846,14 +9831,14 @@
         <v>163</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -9881,10 +9866,10 @@
         <v>168</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9902,7 +9887,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9920,7 +9905,7 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
@@ -9931,10 +9916,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9957,19 +9942,19 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10018,7 +10003,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10033,13 +10018,13 @@
         <v>160</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10047,10 +10032,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10076,14 +10061,14 @@
         <v>273</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10132,7 +10117,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10147,10 +10132,10 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10161,10 +10146,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10190,14 +10175,14 @@
         <v>333</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10246,7 +10231,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10261,10 +10246,10 @@
         <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10275,10 +10260,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10301,19 +10286,19 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10362,7 +10347,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -349,7 +349,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -361,7 +361,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -407,7 +407,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1118,7 +1118,7 @@
     <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -1131,7 +1131,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>

--- a/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-organization.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
